--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Brewing\Software\RecipePlanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98C0E37-C62E-48B6-94CB-01C80C6252C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E739E141-75C1-42EB-A9B8-D92D0FDF96CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CDF466C7-5B50-42D7-8D0F-5D6B49FA8285}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CDF466C7-5B50-42D7-8D0F-5D6B49FA8285}"/>
   </bookViews>
   <sheets>
     <sheet name="Styles" sheetId="5" r:id="rId1"/>
@@ -4047,28 +4047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4087,6 +4066,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4433,61 +4433,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="39" t="s">
         <v>1009</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37" t="s">
+      <c r="D1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="31"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43" t="s">
         <v>1010</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="31" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="38" t="s">
         <v>1011</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="40" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="33" t="s">
         <v>1012</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="35" t="s">
         <v>1013</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="36" t="s">
         <v>1014</v>
       </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="43" t="s">
+      <c r="P1" s="37"/>
+      <c r="Q1" s="36" t="s">
         <v>1015</v>
       </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="35" t="s">
+      <c r="R1" s="37"/>
+      <c r="S1" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="31" t="s">
         <v>1004</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="31" t="s">
         <v>1003</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="V1" s="31" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="24" t="s">
         <v>1005</v>
       </c>
@@ -4533,10 +4533,10 @@
       <c r="R2" s="17" t="s">
         <v>1017</v>
       </c>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -11152,6 +11152,12 @@
     </sortState>
   </autoFilter>
   <mergeCells count="14">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="K1:L1"/>
@@ -11160,12 +11166,6 @@
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{A6DCB9C4-B06B-4870-87D5-BA96103BC11D}">

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Brewing\Software\RecipePlanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E739E141-75C1-42EB-A9B8-D92D0FDF96CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82118FD9-E7B7-4843-B5FF-00A6F3B64D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CDF466C7-5B50-42D7-8D0F-5D6B49FA8285}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{CDF466C7-5B50-42D7-8D0F-5D6B49FA8285}"/>
   </bookViews>
   <sheets>
     <sheet name="Styles" sheetId="5" r:id="rId1"/>
@@ -4047,7 +4047,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4066,27 +4087,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4433,61 +4433,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="32" t="s">
         <v>1009</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43" t="s">
+      <c r="D1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37" t="s">
         <v>1010</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="31" t="s">
         <v>1011</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="33" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="40" t="s">
         <v>1012</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="42" t="s">
         <v>1013</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="36" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="43" t="s">
         <v>1014</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="36" t="s">
+      <c r="P1" s="44"/>
+      <c r="Q1" s="43" t="s">
         <v>1015</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="31" t="s">
+      <c r="R1" s="44"/>
+      <c r="S1" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="35" t="s">
         <v>1004</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="35" t="s">
         <v>1003</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="35" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
         <v>1005</v>
       </c>
@@ -4533,10 +4533,10 @@
       <c r="R2" s="17" t="s">
         <v>1017</v>
       </c>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -11152,12 +11152,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:H1"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="K1:L1"/>
@@ -11166,6 +11160,12 @@
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{A6DCB9C4-B06B-4870-87D5-BA96103BC11D}">
@@ -20717,7 +20717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C200754A-849E-424D-9967-CE80DF2DBB8D}">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -23355,11 +23355,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F56AC2-CB84-477F-887D-0F7013E70CB1}">
   <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F69" sqref="F69"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23439,6 +23439,9 @@
       <c r="F2" s="29">
         <v>0.8</v>
       </c>
+      <c r="G2" s="29">
+        <v>0.9</v>
+      </c>
       <c r="I2" t="s">
         <v>1021</v>
       </c>
@@ -23468,6 +23471,9 @@
       <c r="F3" s="29">
         <v>0.7</v>
       </c>
+      <c r="G3" s="29">
+        <v>0.7</v>
+      </c>
       <c r="I3" t="s">
         <v>1021</v>
       </c>
@@ -23497,6 +23503,9 @@
       <c r="F4" s="29">
         <v>0.75</v>
       </c>
+      <c r="G4" s="29">
+        <v>0.75</v>
+      </c>
       <c r="I4" t="s">
         <v>1021</v>
       </c>
@@ -23524,6 +23533,9 @@
         <v>1024</v>
       </c>
       <c r="F5" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="29">
         <v>0.75</v>
       </c>
       <c r="I5" t="s">

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Brewing\Software\RecipePlanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82118FD9-E7B7-4843-B5FF-00A6F3B64D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B217C6FC-6A0C-49EC-A45C-ACC0FDED8E08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{CDF466C7-5B50-42D7-8D0F-5D6B49FA8285}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{CDF466C7-5B50-42D7-8D0F-5D6B49FA8285}"/>
   </bookViews>
   <sheets>
     <sheet name="Styles" sheetId="5" r:id="rId1"/>
     <sheet name="Fermentables" sheetId="3" r:id="rId2"/>
     <sheet name="Hops" sheetId="4" r:id="rId3"/>
     <sheet name="Cultures" sheetId="6" r:id="rId4"/>
+    <sheet name="Waters" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Cultures!$A$1:$N$124</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fermentables!$A$1:$O$212</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hops!$A$1:$M$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Styles!$A$2:$V$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Waters!$A$1:$I$3</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="1278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="1289">
   <si>
     <t>Style</t>
   </si>
@@ -3876,6 +3878,39 @@
   </si>
   <si>
     <t>Typically used for making rice wine but has shown to ferment beer just fine. The ester profile is very fruity and produces a surprising amount of alcohol (15%). The aroma and flavor were highly favorable compared to rice wine made with the traditional yeast balls.</t>
+  </si>
+  <si>
+    <t>Calcium</t>
+  </si>
+  <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <t>Chloride</t>
+  </si>
+  <si>
+    <t>Sulfate</t>
+  </si>
+  <si>
+    <t>Bicarbonate</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Distilled</t>
+  </si>
+  <si>
+    <t>Bay City</t>
+  </si>
+  <si>
+    <t>Generic entry for distilled water purchased from the store.</t>
+  </si>
+  <si>
+    <t>From a report from Ward Laboratories commissioned on 3/31/2020.</t>
   </si>
 </sst>
 </file>
@@ -4047,28 +4082,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4087,6 +4101,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4433,61 +4468,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="39" t="s">
         <v>1009</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37" t="s">
+      <c r="D1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="31"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43" t="s">
         <v>1010</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="31" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="38" t="s">
         <v>1011</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="40" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="33" t="s">
         <v>1012</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="34"/>
+      <c r="M1" s="35" t="s">
         <v>1013</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="36" t="s">
         <v>1014</v>
       </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="43" t="s">
+      <c r="P1" s="37"/>
+      <c r="Q1" s="36" t="s">
         <v>1015</v>
       </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="35" t="s">
+      <c r="R1" s="37"/>
+      <c r="S1" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="31" t="s">
         <v>1004</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="31" t="s">
         <v>1003</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="V1" s="31" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="24" t="s">
         <v>1005</v>
       </c>
@@ -4533,10 +4568,10 @@
       <c r="R2" s="17" t="s">
         <v>1017</v>
       </c>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -11152,6 +11187,12 @@
     </sortState>
   </autoFilter>
   <mergeCells count="14">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="K1:L1"/>
@@ -11160,12 +11201,6 @@
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{A6DCB9C4-B06B-4870-87D5-BA96103BC11D}">
@@ -23355,7 +23390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F56AC2-CB84-477F-887D-0F7013E70CB1}">
   <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -28241,4 +28276,122 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28D1FEB-4166-4FC4-8871-127B51015D85}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="93.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B2">
+        <v>33.4</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>107</v>
+      </c>
+      <c r="H2">
+        <v>7.9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I3" xr:uid="{AE6419A9-73C7-4898-84AF-BAB225F6E0B4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I3">
+      <sortCondition ref="A1:A3"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Brewing\Software\RecipePlanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B217C6FC-6A0C-49EC-A45C-ACC0FDED8E08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5CF845-56FD-4353-A1EA-33FB4542ED4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{CDF466C7-5B50-42D7-8D0F-5D6B49FA8285}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="1289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="1287">
   <si>
     <t>Style</t>
   </si>
@@ -3901,13 +3901,7 @@
     <t>pH</t>
   </si>
   <si>
-    <t>Distilled</t>
-  </si>
-  <si>
     <t>Bay City</t>
-  </si>
-  <si>
-    <t>Generic entry for distilled water purchased from the store.</t>
   </si>
   <si>
     <t>From a report from Ward Laboratories commissioned on 3/31/2020.</t>
@@ -4082,7 +4076,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4101,27 +4116,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4468,61 +4462,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="32" t="s">
         <v>1009</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43" t="s">
+      <c r="D1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37" t="s">
         <v>1010</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="31" t="s">
         <v>1011</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="33" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="40" t="s">
         <v>1012</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="42" t="s">
         <v>1013</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="36" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="43" t="s">
         <v>1014</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="36" t="s">
+      <c r="P1" s="44"/>
+      <c r="Q1" s="43" t="s">
         <v>1015</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="31" t="s">
+      <c r="R1" s="44"/>
+      <c r="S1" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="35" t="s">
         <v>1004</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="35" t="s">
         <v>1003</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="35" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="24" t="s">
         <v>1005</v>
       </c>
@@ -4568,10 +4562,10 @@
       <c r="R2" s="17" t="s">
         <v>1017</v>
       </c>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -11187,12 +11181,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:H1"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="K1:L1"/>
@@ -11201,6 +11189,12 @@
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{A6DCB9C4-B06B-4870-87D5-BA96103BC11D}">
@@ -28280,10 +28274,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28D1FEB-4166-4FC4-8871-127B51015D85}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28330,7 +28324,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B2">
         <v>33.4</v>
@@ -28354,36 +28348,7 @@
         <v>7.9</v>
       </c>
       <c r="I2" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
   </sheetData>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Brewing\Software\RecipePlanner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Brewing\Software\AlphaBrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB91CD7-297E-4F8E-9C59-67DCDA0AE85E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA14D8EF-2B07-42DB-BA35-B27F3AC6BA8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CDF466C7-5B50-42D7-8D0F-5D6B49FA8285}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CDF466C7-5B50-42D7-8D0F-5D6B49FA8285}"/>
   </bookViews>
   <sheets>
     <sheet name="Styles" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Cultures!$A$1:$N$124</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fermentables!$A$1:$N$208</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hops!$A$1:$M$64</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Styles!$A$2:$V$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Styles!$A$2:$V$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Waters!$A$1:$I$3</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1" iterateDelta="1E-4" concurrentCalc="0"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3125" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="1258">
   <si>
     <t>Style</t>
   </si>
@@ -3815,6 +3815,9 @@
   </si>
   <si>
     <t>Caramel Vienna Malt</t>
+  </si>
+  <si>
+    <t>Black IPA</t>
   </si>
 </sst>
 </file>
@@ -3996,28 +3999,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4036,6 +4018,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4354,10 +4357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD9F28D-7B72-455D-AE84-5081F2A35C92}">
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4382,61 +4385,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="41" t="s">
         <v>957</v>
       </c>
-      <c r="D1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39" t="s">
+      <c r="D1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45" t="s">
         <v>958</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="33" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="40" t="s">
         <v>959</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="35" t="s">
         <v>960</v>
       </c>
-      <c r="L1" s="43"/>
-      <c r="M1" s="44" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="37" t="s">
         <v>961</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="45" t="s">
+      <c r="N1" s="37"/>
+      <c r="O1" s="38" t="s">
         <v>962</v>
       </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="45" t="s">
+      <c r="P1" s="39"/>
+      <c r="Q1" s="38" t="s">
         <v>963</v>
       </c>
-      <c r="R1" s="46"/>
-      <c r="S1" s="37" t="s">
+      <c r="R1" s="39"/>
+      <c r="S1" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="33" t="s">
         <v>952</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="33" t="s">
         <v>951</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="33" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="22" t="s">
         <v>953</v>
       </c>
@@ -4482,10 +4485,10 @@
       <c r="R2" s="15" t="s">
         <v>965</v>
       </c>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5707,16 +5710,16 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>1257</v>
       </c>
       <c r="B21" t="s">
         <v>956</v>
       </c>
       <c r="C21" t="s">
-        <v>517</v>
+        <v>886</v>
       </c>
       <c r="D21" s="23">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>485</v>
@@ -5725,66 +5728,54 @@
         <v>486</v>
       </c>
       <c r="G21" s="16">
-        <v>1.038</v>
+        <v>1.05</v>
       </c>
       <c r="H21" s="17">
-        <v>1.054</v>
+        <v>1.085</v>
       </c>
       <c r="I21" s="1">
-        <v>1.008</v>
+        <v>1.01</v>
       </c>
       <c r="J21" s="1">
-        <v>1.0129999999999999</v>
+        <v>1.018</v>
       </c>
       <c r="K21" s="18">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L21" s="19">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="M21" s="3">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="N21" s="3">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="O21" s="24">
-        <v>3.7999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="P21" s="25">
-        <v>5.5E-2</v>
+        <v>0.09</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
       <c r="R21" s="21">
         <v>0</v>
-      </c>
-      <c r="S21" t="s">
-        <v>574</v>
-      </c>
-      <c r="T21" t="s">
-        <v>575</v>
-      </c>
-      <c r="U21" t="s">
-        <v>576</v>
-      </c>
-      <c r="V21" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>578</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>956</v>
       </c>
       <c r="C22" t="s">
-        <v>580</v>
+        <v>517</v>
       </c>
       <c r="D22" s="23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>485</v>
@@ -5793,34 +5784,34 @@
         <v>486</v>
       </c>
       <c r="G22" s="16">
-        <v>1.044</v>
+        <v>1.038</v>
       </c>
       <c r="H22" s="17">
-        <v>1.056</v>
+        <v>1.054</v>
       </c>
       <c r="I22" s="1">
+        <v>1.008</v>
+      </c>
+      <c r="J22" s="1">
         <v>1.0129999999999999</v>
       </c>
-      <c r="J22" s="1">
-        <v>1.0169999999999999</v>
-      </c>
       <c r="K22" s="18">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L22" s="19">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M22" s="3">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>6</v>
       </c>
       <c r="O22" s="24">
-        <v>4.2000000000000003E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="P22" s="25">
-        <v>5.4000000000000006E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -5829,30 +5820,30 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="T22" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="U22" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="V22" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B23" t="s">
-        <v>586</v>
+        <v>956</v>
       </c>
       <c r="C23" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="D23" s="23">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>485</v>
@@ -5861,34 +5852,34 @@
         <v>486</v>
       </c>
       <c r="G23" s="16">
-        <v>1</v>
+        <v>1.044</v>
       </c>
       <c r="H23" s="17">
-        <v>1.2</v>
+        <v>1.056</v>
       </c>
       <c r="I23" s="1">
-        <v>1</v>
+        <v>1.0129999999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>1.2</v>
+        <v>1.0169999999999999</v>
       </c>
       <c r="K23" s="18">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L23" s="19">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="O23" s="24">
-        <v>0</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="P23" s="25">
-        <v>1</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
@@ -5897,66 +5888,66 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="T23" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="U23" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="V23" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B24" t="s">
-        <v>956</v>
+        <v>586</v>
       </c>
       <c r="C24" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="D24" s="23">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G24" s="16">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="H24" s="17">
-        <v>1.052</v>
+        <v>1.2</v>
       </c>
       <c r="I24" s="1">
-        <v>1.008</v>
+        <v>1</v>
       </c>
       <c r="J24" s="1">
-        <v>1.014</v>
+        <v>1.2</v>
       </c>
       <c r="K24" s="18">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L24" s="19">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O24" s="24">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="P24" s="25">
-        <v>5.4000000000000006E-2</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -5965,66 +5956,66 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="T24" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="U24" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="V24" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B25" t="s">
         <v>956</v>
       </c>
       <c r="C25" t="s">
-        <v>598</v>
+        <v>529</v>
       </c>
       <c r="D25" s="23">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G25" s="16">
-        <v>1.048</v>
+        <v>1.04</v>
       </c>
       <c r="H25" s="17">
-        <v>1.054</v>
+        <v>1.052</v>
       </c>
       <c r="I25" s="1">
-        <v>1.0109999999999999</v>
+        <v>1.008</v>
       </c>
       <c r="J25" s="1">
         <v>1.014</v>
       </c>
       <c r="K25" s="18">
+        <v>18</v>
+      </c>
+      <c r="L25" s="19">
+        <v>35</v>
+      </c>
+      <c r="M25" s="3">
+        <v>20</v>
+      </c>
+      <c r="N25" s="3">
         <v>30</v>
       </c>
-      <c r="L25" s="19">
-        <v>45</v>
-      </c>
-      <c r="M25" s="3">
-        <v>10</v>
-      </c>
-      <c r="N25" s="3">
-        <v>14</v>
-      </c>
       <c r="O25" s="24">
-        <v>4.4999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="P25" s="25">
-        <v>5.5E-2</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="Q25" s="3">
         <v>0</v>
@@ -6033,30 +6024,30 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="T25" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="U25" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="V25" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B26" t="s">
         <v>956</v>
       </c>
       <c r="C26" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D26" s="23">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>485</v>
@@ -6065,34 +6056,34 @@
         <v>486</v>
       </c>
       <c r="G26" s="16">
-        <v>1</v>
+        <v>1.048</v>
       </c>
       <c r="H26" s="17">
-        <v>1.2</v>
+        <v>1.054</v>
       </c>
       <c r="I26" s="1">
-        <v>1</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>1.2</v>
+        <v>1.014</v>
       </c>
       <c r="K26" s="18">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L26" s="19">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O26" s="24">
-        <v>0</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="P26" s="25">
-        <v>1</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
@@ -6101,66 +6092,66 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="T26" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="U26" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="V26" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B27" t="s">
         <v>956</v>
       </c>
       <c r="C27" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="D27" s="23">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G27" s="16">
-        <v>1.044</v>
+        <v>1</v>
       </c>
       <c r="H27" s="17">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="I27" s="1">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="J27" s="1">
-        <v>1.0149999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="K27" s="18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L27" s="19">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="O27" s="24">
-        <v>4.4999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="P27" s="25">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
@@ -6169,63 +6160,63 @@
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="T27" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="U27" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="V27" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B28" t="s">
         <v>956</v>
       </c>
       <c r="C28" t="s">
-        <v>615</v>
+        <v>580</v>
       </c>
       <c r="D28" s="23">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G28" s="16">
-        <v>1.05</v>
+        <v>1.044</v>
       </c>
       <c r="H28" s="17">
-        <v>1.0569999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="I28" s="1">
-        <v>1.012</v>
+        <v>1.01</v>
       </c>
       <c r="J28" s="1">
-        <v>1.016</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="K28" s="18">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L28" s="19">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M28" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N28" s="3">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="O28" s="24">
-        <v>4.8000000000000001E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="P28" s="25">
         <v>0.06</v>
@@ -6237,30 +6228,30 @@
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="T28" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="U28" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="V28" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B29" t="s">
-        <v>524</v>
+        <v>956</v>
       </c>
       <c r="C29" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D29" s="23">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>505</v>
@@ -6269,34 +6260,34 @@
         <v>486</v>
       </c>
       <c r="G29" s="16">
-        <v>1.0449999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="H29" s="17">
-        <v>1.0649999999999999</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="I29" s="1">
-        <v>1</v>
+        <v>1.012</v>
       </c>
       <c r="J29" s="1">
-        <v>1.02</v>
+        <v>1.016</v>
       </c>
       <c r="K29" s="18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L29" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M29" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N29" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O29" s="24">
-        <v>0.05</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="P29" s="25">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -6305,18 +6296,21 @@
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="T29" t="s">
-        <v>623</v>
+        <v>617</v>
+      </c>
+      <c r="U29" t="s">
+        <v>618</v>
       </c>
       <c r="V29" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B30" t="s">
         <v>524</v>
@@ -6328,16 +6322,16 @@
         <v>27</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G30" s="16">
-        <v>1.05</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="H30" s="17">
-        <v>1.06</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
@@ -6361,7 +6355,7 @@
         <v>0.05</v>
       </c>
       <c r="P30" s="25">
-        <v>7.2000000000000008E-2</v>
+        <v>0.08</v>
       </c>
       <c r="Q30" s="3">
         <v>0</v>
@@ -6370,63 +6364,63 @@
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="T30" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="V30" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>625</v>
       </c>
       <c r="B31" t="s">
-        <v>956</v>
+        <v>524</v>
       </c>
       <c r="C31" t="s">
-        <v>517</v>
+        <v>621</v>
       </c>
       <c r="D31" s="23">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G31" s="16">
-        <v>1.042</v>
+        <v>1.05</v>
       </c>
       <c r="H31" s="17">
-        <v>1.0549999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="I31" s="1">
-        <v>1.006</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1">
-        <v>1.012</v>
+        <v>1.02</v>
       </c>
       <c r="K31" s="18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L31" s="19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M31" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N31" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O31" s="24">
-        <v>4.2000000000000003E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P31" s="25">
-        <v>5.5999999999999994E-2</v>
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="Q31" s="3">
         <v>0</v>
@@ -6435,30 +6429,27 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="T31" t="s">
-        <v>630</v>
-      </c>
-      <c r="U31" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="V31" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>633</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>586</v>
+        <v>956</v>
       </c>
       <c r="C32" t="s">
-        <v>634</v>
+        <v>517</v>
       </c>
       <c r="D32" s="23">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>505</v>
@@ -6467,34 +6458,34 @@
         <v>486</v>
       </c>
       <c r="G32" s="16">
-        <v>1</v>
+        <v>1.042</v>
       </c>
       <c r="H32" s="17">
-        <v>1.2</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="I32" s="1">
-        <v>1</v>
+        <v>1.006</v>
       </c>
       <c r="J32" s="1">
-        <v>1.2</v>
+        <v>1.012</v>
       </c>
       <c r="K32" s="18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L32" s="19">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="O32" s="24">
-        <v>0</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="P32" s="25">
-        <v>1</v>
+        <v>5.5999999999999994E-2</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -6503,30 +6494,30 @@
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="T32" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="U32" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="V32" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B33" t="s">
-        <v>956</v>
+        <v>586</v>
       </c>
       <c r="C33" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D33" s="23">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>505</v>
@@ -6535,34 +6526,34 @@
         <v>486</v>
       </c>
       <c r="G33" s="16">
-        <v>1.044</v>
+        <v>1</v>
       </c>
       <c r="H33" s="17">
-        <v>1.056</v>
+        <v>1.2</v>
       </c>
       <c r="I33" s="1">
-        <v>1.008</v>
+        <v>1</v>
       </c>
       <c r="J33" s="1">
-        <v>1.012</v>
+        <v>1.2</v>
       </c>
       <c r="K33" s="18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L33" s="19">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="O33" s="24">
-        <v>4.2000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="P33" s="25">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
@@ -6571,66 +6562,66 @@
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="T33" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="U33" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="V33" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>639</v>
       </c>
       <c r="B34" t="s">
         <v>956</v>
       </c>
       <c r="C34" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D34" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G34" s="16">
-        <v>1.0720000000000001</v>
+        <v>1.044</v>
       </c>
       <c r="H34" s="17">
-        <v>1.1120000000000001</v>
+        <v>1.056</v>
       </c>
       <c r="I34" s="1">
-        <v>1.016</v>
+        <v>1.008</v>
       </c>
       <c r="J34" s="1">
-        <v>1.024</v>
+        <v>1.012</v>
       </c>
       <c r="K34" s="18">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L34" s="19">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M34" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N34" s="3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O34" s="24">
-        <v>7.0000000000000007E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="P34" s="25">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="Q34" s="3">
         <v>0</v>
@@ -6639,66 +6630,66 @@
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="T34" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="U34" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="V34" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>650</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
         <v>956</v>
       </c>
       <c r="C35" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D35" s="23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G35" s="16">
-        <v>1.048</v>
+        <v>1.0720000000000001</v>
       </c>
       <c r="H35" s="17">
-        <v>1.056</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="I35" s="1">
-        <v>1.01</v>
+        <v>1.016</v>
       </c>
       <c r="J35" s="1">
-        <v>1.0149999999999999</v>
+        <v>1.024</v>
       </c>
       <c r="K35" s="18">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L35" s="19">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M35" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N35" s="3">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="O35" s="24">
-        <v>4.8000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P35" s="25">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
@@ -6707,66 +6698,66 @@
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="T35" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="U35" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="V35" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B36" t="s">
-        <v>586</v>
+        <v>956</v>
       </c>
       <c r="C36" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D36" s="23">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G36" s="16">
-        <v>1</v>
+        <v>1.048</v>
       </c>
       <c r="H36" s="17">
-        <v>1.2</v>
+        <v>1.056</v>
       </c>
       <c r="I36" s="1">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="J36" s="1">
-        <v>1.2</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="K36" s="18">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L36" s="19">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="M36" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N36" s="3">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="O36" s="24">
-        <v>0</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="P36" s="25">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="Q36" s="3">
         <v>0</v>
@@ -6775,30 +6766,30 @@
         <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="T36" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="U36" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="V36" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B37" t="s">
-        <v>956</v>
+        <v>586</v>
       </c>
       <c r="C37" t="s">
-        <v>510</v>
+        <v>657</v>
       </c>
       <c r="D37" s="23">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>505</v>
@@ -6807,34 +6798,34 @@
         <v>486</v>
       </c>
       <c r="G37" s="16">
-        <v>1.036</v>
+        <v>1</v>
       </c>
       <c r="H37" s="17">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="I37" s="1">
-        <v>1.0069999999999999</v>
+        <v>1</v>
       </c>
       <c r="J37" s="1">
-        <v>1.0109999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="K37" s="18">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L37" s="19">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="M37" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N37" s="3">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="O37" s="24">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="P37" s="25">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="3">
         <v>0</v>
@@ -6843,66 +6834,66 @@
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="T37" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="U37" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="V37" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B38" t="s">
         <v>956</v>
       </c>
       <c r="C38" t="s">
-        <v>668</v>
+        <v>510</v>
       </c>
       <c r="D38" s="23">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G38" s="16">
-        <v>1.044</v>
+        <v>1.036</v>
       </c>
       <c r="H38" s="17">
-        <v>1.056</v>
+        <v>1.05</v>
       </c>
       <c r="I38" s="1">
-        <v>1.01</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="J38" s="1">
-        <v>1.014</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="K38" s="18">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L38" s="19">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M38" s="3">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N38" s="3">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="O38" s="24">
-        <v>4.2999999999999997E-2</v>
+        <v>0.04</v>
       </c>
       <c r="P38" s="25">
-        <v>5.5999999999999994E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Q38" s="3">
         <v>0</v>
@@ -6911,66 +6902,66 @@
         <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="T38" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="U38" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="V38" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B39" t="s">
         <v>956</v>
       </c>
       <c r="C39" t="s">
-        <v>598</v>
+        <v>668</v>
       </c>
       <c r="D39" s="23">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G39" s="16">
-        <v>1.046</v>
+        <v>1.044</v>
       </c>
       <c r="H39" s="17">
-        <v>1.054</v>
+        <v>1.056</v>
       </c>
       <c r="I39" s="1">
         <v>1.01</v>
       </c>
       <c r="J39" s="1">
-        <v>1.0149999999999999</v>
+        <v>1.014</v>
       </c>
       <c r="K39" s="18">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L39" s="19">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M39" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N39" s="3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="O39" s="24">
-        <v>4.4999999999999998E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="P39" s="25">
-        <v>5.2000000000000005E-2</v>
+        <v>5.5999999999999994E-2</v>
       </c>
       <c r="Q39" s="3">
         <v>0</v>
@@ -6979,66 +6970,66 @@
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="T39" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="U39" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="V39" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>673</v>
       </c>
       <c r="B40" t="s">
         <v>956</v>
       </c>
       <c r="C40" t="s">
-        <v>645</v>
+        <v>598</v>
       </c>
       <c r="D40" s="23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G40" s="16">
-        <v>1.0780000000000001</v>
+        <v>1.046</v>
       </c>
       <c r="H40" s="17">
-        <v>1.1200000000000001</v>
+        <v>1.054</v>
       </c>
       <c r="I40" s="1">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="J40" s="1">
-        <v>1.0349999999999999</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="K40" s="18">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L40" s="19">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M40" s="3">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N40" s="3">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="O40" s="24">
-        <v>0.09</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="P40" s="25">
-        <v>0.14000000000000001</v>
+        <v>5.2000000000000005E-2</v>
       </c>
       <c r="Q40" s="3">
         <v>0</v>
@@ -7047,66 +7038,66 @@
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="T40" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="U40" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="V40" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
         <v>956</v>
       </c>
       <c r="C41" t="s">
-        <v>491</v>
+        <v>645</v>
       </c>
       <c r="D41" s="23">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G41" s="16">
-        <v>1.08</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="H41" s="17">
         <v>1.1200000000000001</v>
       </c>
       <c r="I41" s="1">
-        <v>1.018</v>
+        <v>1.02</v>
       </c>
       <c r="J41" s="1">
-        <v>1.03</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="K41" s="18">
+        <v>25</v>
+      </c>
+      <c r="L41" s="19">
         <v>35</v>
       </c>
-      <c r="L41" s="19">
-        <v>70</v>
-      </c>
       <c r="M41" s="3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N41" s="3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O41" s="24">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="P41" s="25">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -7115,30 +7106,30 @@
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="T41" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="U41" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="V41" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>686</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>524</v>
+        <v>956</v>
       </c>
       <c r="C42" t="s">
-        <v>621</v>
+        <v>491</v>
       </c>
       <c r="D42" s="23">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>485</v>
@@ -7147,34 +7138,34 @@
         <v>486</v>
       </c>
       <c r="G42" s="16">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="H42" s="17">
-        <v>1.075</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I42" s="1">
-        <v>0.995</v>
+        <v>1.018</v>
       </c>
       <c r="J42" s="1">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K42" s="18">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L42" s="19">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M42" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N42" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O42" s="24">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="P42" s="25">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -7182,28 +7173,34 @@
       <c r="R42" s="21">
         <v>0</v>
       </c>
+      <c r="S42" t="s">
+        <v>682</v>
+      </c>
       <c r="T42" t="s">
-        <v>687</v>
+        <v>683</v>
+      </c>
+      <c r="U42" t="s">
+        <v>684</v>
       </c>
       <c r="V42" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>686</v>
       </c>
       <c r="B43" t="s">
-        <v>956</v>
+        <v>524</v>
       </c>
       <c r="C43" t="s">
-        <v>501</v>
+        <v>621</v>
       </c>
       <c r="D43" s="23">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>486</v>
@@ -7215,28 +7212,28 @@
         <v>1.075</v>
       </c>
       <c r="I43" s="1">
+        <v>0.995</v>
+      </c>
+      <c r="J43" s="1">
         <v>1.01</v>
       </c>
-      <c r="J43" s="1">
-        <v>1.018</v>
-      </c>
       <c r="K43" s="18">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L43" s="19">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O43" s="24">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="P43" s="25">
-        <v>7.4999999999999997E-2</v>
+        <v>0.09</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -7244,67 +7241,61 @@
       <c r="R43" s="21">
         <v>0</v>
       </c>
-      <c r="S43" t="s">
-        <v>689</v>
-      </c>
       <c r="T43" t="s">
-        <v>690</v>
-      </c>
-      <c r="U43" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="V43" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>693</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
         <v>956</v>
       </c>
       <c r="C44" t="s">
-        <v>694</v>
+        <v>501</v>
       </c>
       <c r="D44" s="23">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G44" s="16">
-        <v>1.048</v>
+        <v>1.05</v>
       </c>
       <c r="H44" s="17">
-        <v>1.06</v>
+        <v>1.075</v>
       </c>
       <c r="I44" s="1">
         <v>1.01</v>
       </c>
       <c r="J44" s="1">
-        <v>1.016</v>
+        <v>1.018</v>
       </c>
       <c r="K44" s="18">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L44" s="19">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M44" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N44" s="3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O44" s="24">
-        <v>4.5999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P44" s="25">
-        <v>6.2E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -7313,30 +7304,30 @@
         <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="T44" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="U44" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="V44" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="B45" t="s">
         <v>956</v>
       </c>
       <c r="C45" t="s">
-        <v>565</v>
+        <v>694</v>
       </c>
       <c r="D45" s="23">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>492</v>
@@ -7345,34 +7336,34 @@
         <v>486</v>
       </c>
       <c r="G45" s="16">
-        <v>1.04</v>
+        <v>1.048</v>
       </c>
       <c r="H45" s="17">
-        <v>1.0740000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="I45" s="1">
-        <v>1.008</v>
+        <v>1.01</v>
       </c>
       <c r="J45" s="1">
-        <v>1.012</v>
+        <v>1.016</v>
       </c>
       <c r="K45" s="18">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L45" s="19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M45" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N45" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O45" s="24">
-        <v>0.04</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="P45" s="25">
-        <v>0.08</v>
+        <v>6.2E-2</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -7381,21 +7372,21 @@
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="T45" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="U45" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="V45" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>699</v>
       </c>
       <c r="B46" t="s">
         <v>956</v>
@@ -7407,40 +7398,40 @@
         <v>17</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G46" s="16">
-        <v>1.048</v>
+        <v>1.04</v>
       </c>
       <c r="H46" s="17">
-        <v>1.0569999999999999</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="I46" s="1">
-        <v>1.002</v>
+        <v>1.008</v>
       </c>
       <c r="J46" s="1">
         <v>1.012</v>
       </c>
       <c r="K46" s="18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L46" s="19">
         <v>25</v>
       </c>
       <c r="M46" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N46" s="3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="O46" s="24">
-        <v>4.5999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="P46" s="25">
-        <v>6.5000000000000002E-2</v>
+        <v>0.08</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -7449,66 +7440,66 @@
         <v>0</v>
       </c>
       <c r="S46" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="T46" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="U46" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="V46" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
         <v>956</v>
       </c>
       <c r="C47" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="D47" s="23">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G47" s="16">
-        <v>1.056</v>
+        <v>1.048</v>
       </c>
       <c r="H47" s="17">
-        <v>1.075</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="I47" s="1">
-        <v>1.01</v>
+        <v>1.002</v>
       </c>
       <c r="J47" s="1">
-        <v>1.018</v>
+        <v>1.012</v>
       </c>
       <c r="K47" s="18">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L47" s="19">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="M47" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N47" s="3">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="O47" s="24">
-        <v>5.5E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="P47" s="25">
-        <v>0.08</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -7517,66 +7508,66 @@
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="T47" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="U47" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="V47" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>712</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>524</v>
+        <v>956</v>
       </c>
       <c r="C48" t="s">
-        <v>621</v>
+        <v>510</v>
       </c>
       <c r="D48" s="23">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G48" s="16">
-        <v>1.05</v>
+        <v>1.056</v>
       </c>
       <c r="H48" s="17">
-        <v>1.0649999999999999</v>
+        <v>1.075</v>
       </c>
       <c r="I48" s="1">
         <v>1.01</v>
       </c>
       <c r="J48" s="1">
-        <v>1.02</v>
+        <v>1.018</v>
       </c>
       <c r="K48" s="18">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L48" s="19">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O48" s="24">
-        <v>0.03</v>
+        <v>5.5E-2</v>
       </c>
       <c r="P48" s="25">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -7585,60 +7576,66 @@
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="T48" t="s">
-        <v>714</v>
+        <v>709</v>
+      </c>
+      <c r="U48" t="s">
+        <v>710</v>
       </c>
       <c r="V48" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B49" t="s">
-        <v>956</v>
+        <v>524</v>
       </c>
       <c r="C49" t="s">
-        <v>716</v>
+        <v>621</v>
       </c>
       <c r="D49" s="23">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>492</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G49" s="16">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="H49" s="17">
-        <v>1.2</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="I49" s="1">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="J49" s="1">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="K49" s="18">
         <v>0</v>
       </c>
       <c r="L49" s="19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
       <c r="N49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O49" s="24">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="P49" s="25">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -7647,63 +7644,60 @@
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="T49" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="V49" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B50" t="s">
-        <v>524</v>
+        <v>956</v>
       </c>
       <c r="C50" t="s">
-        <v>525</v>
+        <v>716</v>
       </c>
       <c r="D50" s="23">
-        <v>28</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>485</v>
+        <v>20</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G50" s="16">
-        <v>1.0449999999999999</v>
+        <v>1</v>
       </c>
       <c r="H50" s="17">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="I50" s="1">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="J50" s="1">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="K50" s="18">
         <v>0</v>
       </c>
       <c r="L50" s="19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M50" s="3">
         <v>0</v>
       </c>
       <c r="N50" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O50" s="24">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P50" s="25">
-        <v>0.09</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="3">
         <v>0</v>
@@ -7712,42 +7706,42 @@
         <v>0</v>
       </c>
       <c r="S50" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="T50" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="V50" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>720</v>
       </c>
       <c r="B51" t="s">
-        <v>956</v>
+        <v>524</v>
       </c>
       <c r="C51" t="s">
-        <v>565</v>
+        <v>525</v>
       </c>
       <c r="D51" s="23">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>724</v>
+        <v>485</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G51" s="16">
-        <v>1.04</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="H51" s="17">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="I51" s="1">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="J51" s="1">
         <v>1.01</v>
@@ -7759,16 +7753,16 @@
         <v>0</v>
       </c>
       <c r="M51" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N51" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O51" s="24">
         <v>0.05</v>
       </c>
       <c r="P51" s="25">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="Q51" s="3">
         <v>0</v>
@@ -7777,66 +7771,63 @@
         <v>0</v>
       </c>
       <c r="S51" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="T51" t="s">
-        <v>726</v>
-      </c>
-      <c r="U51" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="V51" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>729</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
         <v>956</v>
       </c>
       <c r="C52" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="D52" s="23">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>505</v>
+        <v>724</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G52" s="16">
-        <v>1.044</v>
+        <v>1.04</v>
       </c>
       <c r="H52" s="17">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="I52" s="1">
-        <v>1.008</v>
+        <v>1</v>
       </c>
       <c r="J52" s="1">
-        <v>1.0129999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="K52" s="18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L52" s="19">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N52" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O52" s="24">
-        <v>4.4000000000000004E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P52" s="25">
-        <v>5.2000000000000005E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -7845,66 +7836,66 @@
         <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="T52" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="U52" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="V52" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>729</v>
       </c>
       <c r="B53" t="s">
         <v>956</v>
       </c>
       <c r="C53" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="D53" s="23">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G53" s="16">
-        <v>1.04</v>
+        <v>1.044</v>
       </c>
       <c r="H53" s="17">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="I53" s="1">
-        <v>1</v>
+        <v>1.008</v>
       </c>
       <c r="J53" s="1">
-        <v>1.006</v>
+        <v>1.0129999999999999</v>
       </c>
       <c r="K53" s="18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L53" s="19">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M53" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N53" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O53" s="24">
-        <v>0.05</v>
+        <v>4.4000000000000004E-2</v>
       </c>
       <c r="P53" s="25">
-        <v>0.08</v>
+        <v>5.2000000000000005E-2</v>
       </c>
       <c r="Q53" s="3">
         <v>0</v>
@@ -7913,66 +7904,66 @@
         <v>0</v>
       </c>
       <c r="S53" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="T53" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="U53" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="V53" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>738</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
         <v>956</v>
       </c>
       <c r="C54" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="D54" s="23">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G54" s="16">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="H54" s="17">
-        <v>1.0900000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="I54" s="1">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="J54" s="1">
-        <v>1.02</v>
+        <v>1.006</v>
       </c>
       <c r="K54" s="18">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L54" s="19">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N54" s="3">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="O54" s="24">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P54" s="25">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -7981,66 +7972,66 @@
         <v>0</v>
       </c>
       <c r="S54" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="T54" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="U54" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="V54" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>738</v>
       </c>
       <c r="B55" t="s">
         <v>956</v>
       </c>
       <c r="C55" t="s">
-        <v>743</v>
+        <v>501</v>
       </c>
       <c r="D55" s="23">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G55" s="16">
-        <v>1.044</v>
+        <v>1.07</v>
       </c>
       <c r="H55" s="17">
-        <v>1.06</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I55" s="1">
         <v>1.01</v>
       </c>
       <c r="J55" s="1">
-        <v>1.014</v>
+        <v>1.02</v>
       </c>
       <c r="K55" s="18">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="L55" s="19">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="M55" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N55" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O55" s="24">
-        <v>0.04</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="P55" s="25">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="Q55" s="3">
         <v>0</v>
@@ -8049,33 +8040,33 @@
         <v>0</v>
       </c>
       <c r="S55" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="T55" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="U55" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="V55" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
         <v>956</v>
       </c>
       <c r="C56" t="s">
-        <v>517</v>
+        <v>743</v>
       </c>
       <c r="D56" s="23">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>486</v>
@@ -8084,31 +8075,31 @@
         <v>1.044</v>
       </c>
       <c r="H56" s="17">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="I56" s="1">
-        <v>1.0069999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="J56" s="1">
-        <v>1.0109999999999999</v>
+        <v>1.014</v>
       </c>
       <c r="K56" s="18">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L56" s="19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M56" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N56" s="3">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="O56" s="24">
-        <v>4.4000000000000004E-2</v>
+        <v>0.04</v>
       </c>
       <c r="P56" s="25">
-        <v>5.2000000000000005E-2</v>
+        <v>0.06</v>
       </c>
       <c r="Q56" s="3">
         <v>0</v>
@@ -8117,66 +8108,66 @@
         <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="T56" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="U56" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="V56" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>752</v>
+        <v>27</v>
       </c>
       <c r="B57" t="s">
         <v>956</v>
       </c>
       <c r="C57" t="s">
-        <v>651</v>
+        <v>517</v>
       </c>
       <c r="D57" s="23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G57" s="16">
-        <v>1.028</v>
+        <v>1.044</v>
       </c>
       <c r="H57" s="17">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I57" s="1">
-        <v>0.998</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="J57" s="1">
-        <v>1.008</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="K57" s="18">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L57" s="19">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M57" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N57" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O57" s="24">
-        <v>2.7999999999999997E-2</v>
+        <v>4.4000000000000004E-2</v>
       </c>
       <c r="P57" s="25">
-        <v>4.2000000000000003E-2</v>
+        <v>5.2000000000000005E-2</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -8185,30 +8176,30 @@
         <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="T57" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="U57" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="V57" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B58" t="s">
         <v>956</v>
       </c>
       <c r="C58" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="D58" s="23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>505</v>
@@ -8217,34 +8208,34 @@
         <v>486</v>
       </c>
       <c r="G58" s="16">
-        <v>1.0640000000000001</v>
+        <v>1.028</v>
       </c>
       <c r="H58" s="17">
-        <v>1.0720000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="I58" s="1">
-        <v>1.0109999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="J58" s="1">
-        <v>1.018</v>
+        <v>1.008</v>
       </c>
       <c r="K58" s="18">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="L58" s="19">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="M58" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N58" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O58" s="24">
-        <v>6.3E-2</v>
+        <v>2.7999999999999997E-2</v>
       </c>
       <c r="P58" s="25">
-        <v>7.400000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -8253,30 +8244,30 @@
         <v>0</v>
       </c>
       <c r="S58" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="T58" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="U58" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="V58" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B59" t="s">
-        <v>586</v>
+        <v>956</v>
       </c>
       <c r="C59" t="s">
-        <v>587</v>
+        <v>645</v>
       </c>
       <c r="D59" s="23">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>505</v>
@@ -8285,34 +8276,34 @@
         <v>486</v>
       </c>
       <c r="G59" s="16">
-        <v>1</v>
+        <v>1.0640000000000001</v>
       </c>
       <c r="H59" s="17">
-        <v>1.2</v>
+        <v>1.0720000000000001</v>
       </c>
       <c r="I59" s="1">
-        <v>1</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="J59" s="1">
-        <v>1.2</v>
+        <v>1.018</v>
       </c>
       <c r="K59" s="18">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L59" s="19">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="O59" s="24">
-        <v>0</v>
+        <v>6.3E-2</v>
       </c>
       <c r="P59" s="25">
-        <v>1</v>
+        <v>7.400000000000001E-2</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -8321,30 +8312,30 @@
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="T59" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="U59" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="V59" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B60" t="s">
-        <v>956</v>
+        <v>586</v>
       </c>
       <c r="C60" t="s">
-        <v>768</v>
+        <v>587</v>
       </c>
       <c r="D60" s="23">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>505</v>
@@ -8353,34 +8344,34 @@
         <v>486</v>
       </c>
       <c r="G60" s="16">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="H60" s="17">
-        <v>1.038</v>
+        <v>1.2</v>
       </c>
       <c r="I60" s="1">
-        <v>1.008</v>
+        <v>1</v>
       </c>
       <c r="J60" s="1">
-        <v>1.0129999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="K60" s="18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L60" s="19">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N60" s="3">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="O60" s="24">
-        <v>2.7999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="P60" s="25">
-        <v>4.4999999999999998E-2</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
@@ -8389,67 +8380,67 @@
         <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="T60" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="U60" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="V60" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>767</v>
       </c>
       <c r="B61" t="s">
         <v>956</v>
       </c>
       <c r="C61" t="s">
-        <v>640</v>
+        <v>768</v>
       </c>
       <c r="D61" s="23">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G61" s="16">
-        <v>1.048</v>
+        <v>1.03</v>
       </c>
       <c r="H61" s="17">
-        <v>1.056</v>
+        <v>1.038</v>
       </c>
       <c r="I61" s="1">
-        <v>1.01</v>
+        <v>1.008</v>
       </c>
       <c r="J61" s="1">
-        <v>1.016</v>
+        <v>1.0129999999999999</v>
       </c>
       <c r="K61" s="18">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L61" s="19">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M61" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N61" s="3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O61" s="24">
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="P61" s="25">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="P61" s="25">
-        <v>5.5999999999999994E-2</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -8457,66 +8448,66 @@
         <v>0</v>
       </c>
       <c r="S61" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="T61" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="U61" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="V61" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
         <v>956</v>
       </c>
       <c r="C62" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="D62" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G62" s="16">
-        <v>1.0449999999999999</v>
+        <v>1.048</v>
       </c>
       <c r="H62" s="17">
-        <v>1.0509999999999999</v>
+        <v>1.056</v>
       </c>
       <c r="I62" s="1">
-        <v>1.008</v>
+        <v>1.01</v>
       </c>
       <c r="J62" s="1">
-        <v>1.012</v>
+        <v>1.016</v>
       </c>
       <c r="K62" s="18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L62" s="19">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M62" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N62" s="3">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="O62" s="24">
-        <v>4.7E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="P62" s="25">
-        <v>5.4000000000000006E-2</v>
+        <v>5.5999999999999994E-2</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -8525,66 +8516,66 @@
         <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="T62" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="U62" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="V62" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>781</v>
+        <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>524</v>
+        <v>956</v>
       </c>
       <c r="C63" t="s">
-        <v>525</v>
+        <v>651</v>
       </c>
       <c r="D63" s="23">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G63" s="16">
-        <v>1.06</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="H63" s="17">
-        <v>1.1000000000000001</v>
+        <v>1.0509999999999999</v>
       </c>
       <c r="I63" s="1">
-        <v>0.995</v>
+        <v>1.008</v>
       </c>
       <c r="J63" s="1">
-        <v>1.01</v>
+        <v>1.012</v>
       </c>
       <c r="K63" s="18">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L63" s="19">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M63" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N63" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O63" s="24">
-        <v>7.0000000000000007E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="P63" s="25">
-        <v>0.13</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="Q63" s="3">
         <v>0</v>
@@ -8593,63 +8584,66 @@
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="T63" t="s">
-        <v>783</v>
+        <v>778</v>
+      </c>
+      <c r="U63" t="s">
+        <v>779</v>
       </c>
       <c r="V63" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B64" t="s">
-        <v>956</v>
+        <v>524</v>
       </c>
       <c r="C64" t="s">
-        <v>768</v>
+        <v>525</v>
       </c>
       <c r="D64" s="23">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G64" s="16">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="H64" s="17">
-        <v>1.052</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I64" s="1">
-        <v>1.008</v>
+        <v>0.995</v>
       </c>
       <c r="J64" s="1">
-        <v>1.014</v>
+        <v>1.01</v>
       </c>
       <c r="K64" s="18">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L64" s="19">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M64" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N64" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="O64" s="24">
-        <v>4.2000000000000003E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P64" s="25">
-        <v>5.4000000000000006E-2</v>
+        <v>0.13</v>
       </c>
       <c r="Q64" s="3">
         <v>0</v>
@@ -8658,66 +8652,63 @@
         <v>0</v>
       </c>
       <c r="S64" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="T64" t="s">
-        <v>787</v>
-      </c>
-      <c r="U64" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="V64" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B65" t="s">
         <v>956</v>
       </c>
       <c r="C65" t="s">
-        <v>598</v>
+        <v>768</v>
       </c>
       <c r="D65" s="23">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G65" s="16">
-        <v>1.046</v>
+        <v>1.04</v>
       </c>
       <c r="H65" s="17">
-        <v>1.054</v>
+        <v>1.052</v>
       </c>
       <c r="I65" s="1">
-        <v>1.01</v>
+        <v>1.008</v>
       </c>
       <c r="J65" s="1">
-        <v>1.0149999999999999</v>
+        <v>1.014</v>
       </c>
       <c r="K65" s="18">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L65" s="19">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M65" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N65" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O65" s="24">
-        <v>4.4999999999999998E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="P65" s="25">
-        <v>5.2000000000000005E-2</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="Q65" s="3">
         <v>0</v>
@@ -8726,48 +8717,48 @@
         <v>0</v>
       </c>
       <c r="S65" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="T65" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="U65" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="V65" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>790</v>
       </c>
       <c r="B66" t="s">
         <v>956</v>
       </c>
       <c r="C66" t="s">
-        <v>510</v>
+        <v>598</v>
       </c>
       <c r="D66" s="23">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G66" s="16">
-        <v>1.048</v>
+        <v>1.046</v>
       </c>
       <c r="H66" s="17">
-        <v>1.0649999999999999</v>
+        <v>1.054</v>
       </c>
       <c r="I66" s="1">
         <v>1.01</v>
       </c>
       <c r="J66" s="1">
-        <v>1.018</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="K66" s="18">
         <v>25</v>
@@ -8776,16 +8767,16 @@
         <v>40</v>
       </c>
       <c r="M66" s="3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N66" s="3">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O66" s="24">
-        <v>4.2000000000000003E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="P66" s="25">
-        <v>5.9000000000000004E-2</v>
+        <v>5.2000000000000005E-2</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
@@ -8794,66 +8785,66 @@
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="T66" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="U66" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="V66" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>799</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
         <v>956</v>
       </c>
       <c r="C67" t="s">
-        <v>800</v>
+        <v>510</v>
       </c>
       <c r="D67" s="23">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G67" s="16">
-        <v>1.05</v>
+        <v>1.048</v>
       </c>
       <c r="H67" s="17">
-        <v>1.0569999999999999</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="I67" s="1">
-        <v>1.012</v>
+        <v>1.01</v>
       </c>
       <c r="J67" s="1">
-        <v>1.016</v>
+        <v>1.018</v>
       </c>
       <c r="K67" s="18">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L67" s="19">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M67" s="3">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N67" s="3">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="O67" s="24">
-        <v>4.8000000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="P67" s="25">
-        <v>5.7000000000000002E-2</v>
+        <v>5.9000000000000004E-2</v>
       </c>
       <c r="Q67" s="3">
         <v>0</v>
@@ -8862,66 +8853,66 @@
         <v>0</v>
       </c>
       <c r="S67" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="T67" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="U67" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="V67" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>799</v>
       </c>
       <c r="B68" t="s">
         <v>956</v>
       </c>
       <c r="C68" t="s">
-        <v>491</v>
+        <v>800</v>
       </c>
       <c r="D68" s="23">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G68" s="16">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="H68" s="17">
-        <v>1.0900000000000001</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="I68" s="1">
-        <v>1.0149999999999999</v>
+        <v>1.012</v>
       </c>
       <c r="J68" s="1">
-        <v>1.022</v>
+        <v>1.016</v>
       </c>
       <c r="K68" s="18">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L68" s="19">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="M68" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N68" s="3">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O68" s="24">
-        <v>0.06</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="P68" s="25">
-        <v>0.09</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="Q68" s="3">
         <v>0</v>
@@ -8930,66 +8921,66 @@
         <v>0</v>
       </c>
       <c r="S68" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="T68" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="U68" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="V68" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>809</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>586</v>
+        <v>956</v>
       </c>
       <c r="C69" t="s">
-        <v>587</v>
+        <v>491</v>
       </c>
       <c r="D69" s="23">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G69" s="16">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="H69" s="17">
-        <v>1.2</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I69" s="1">
-        <v>1</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="J69" s="1">
-        <v>1.2</v>
+        <v>1.022</v>
       </c>
       <c r="K69" s="18">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L69" s="19">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M69" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N69" s="3">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="O69" s="24">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="P69" s="25">
-        <v>1</v>
+        <v>0.09</v>
       </c>
       <c r="Q69" s="3">
         <v>0</v>
@@ -8998,27 +8989,30 @@
         <v>0</v>
       </c>
       <c r="S69" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="T69" t="s">
-        <v>811</v>
+        <v>806</v>
+      </c>
+      <c r="U69" t="s">
+        <v>807</v>
       </c>
       <c r="V69" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B70" t="s">
         <v>586</v>
       </c>
       <c r="C70" t="s">
-        <v>634</v>
+        <v>587</v>
       </c>
       <c r="D70" s="23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>492</v>
@@ -9062,31 +9056,31 @@
       <c r="R70" s="21">
         <v>0</v>
       </c>
+      <c r="S70" t="s">
+        <v>810</v>
+      </c>
       <c r="T70" t="s">
-        <v>814</v>
-      </c>
-      <c r="U70" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="V70" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B71" t="s">
-        <v>956</v>
+        <v>586</v>
       </c>
       <c r="C71" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="D71" s="23">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>486</v>
@@ -9127,67 +9121,64 @@
       <c r="R71" s="21">
         <v>0</v>
       </c>
-      <c r="S71" t="s">
-        <v>818</v>
-      </c>
       <c r="T71" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="U71" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="V71" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B72" t="s">
-        <v>524</v>
+        <v>956</v>
       </c>
       <c r="C72" t="s">
-        <v>525</v>
+        <v>615</v>
       </c>
       <c r="D72" s="23">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G72" s="16">
-        <v>1.0449999999999999</v>
+        <v>1</v>
       </c>
       <c r="H72" s="17">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="I72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="K72" s="18">
         <v>0</v>
       </c>
       <c r="L72" s="19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
       </c>
       <c r="N72" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O72" s="24">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P72" s="25">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
@@ -9196,63 +9187,66 @@
         <v>0</v>
       </c>
       <c r="S72" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="T72" t="s">
-        <v>824</v>
+        <v>819</v>
+      </c>
+      <c r="U72" t="s">
+        <v>820</v>
       </c>
       <c r="V72" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B73" t="s">
-        <v>956</v>
+        <v>524</v>
       </c>
       <c r="C73" t="s">
-        <v>651</v>
+        <v>525</v>
       </c>
       <c r="D73" s="23">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G73" s="16">
-        <v>1.046</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="H73" s="17">
-        <v>1.056</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I73" s="1">
-        <v>1.008</v>
+        <v>0</v>
       </c>
       <c r="J73" s="1">
-        <v>1.012</v>
+        <v>0</v>
       </c>
       <c r="K73" s="18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L73" s="19">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M73" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N73" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O73" s="24">
-        <v>4.5999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P73" s="25">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="Q73" s="3">
         <v>0</v>
@@ -9261,66 +9255,63 @@
         <v>0</v>
       </c>
       <c r="S73" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="T73" t="s">
-        <v>828</v>
-      </c>
-      <c r="U73" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="V73" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B74" t="s">
-        <v>586</v>
+        <v>956</v>
       </c>
       <c r="C74" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="D74" s="23">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G74" s="16">
-        <v>1</v>
+        <v>1.046</v>
       </c>
       <c r="H74" s="17">
-        <v>1.2</v>
+        <v>1.056</v>
       </c>
       <c r="I74" s="1">
-        <v>1</v>
+        <v>1.008</v>
       </c>
       <c r="J74" s="1">
-        <v>1.2</v>
+        <v>1.012</v>
       </c>
       <c r="K74" s="18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L74" s="19">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="M74" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N74" s="3">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="O74" s="24">
-        <v>0</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="P74" s="25">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="Q74" s="3">
         <v>0</v>
@@ -9329,27 +9320,30 @@
         <v>0</v>
       </c>
       <c r="S74" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="T74" t="s">
-        <v>833</v>
+        <v>828</v>
+      </c>
+      <c r="U74" t="s">
+        <v>829</v>
       </c>
       <c r="V74" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B75" t="s">
-        <v>956</v>
+        <v>586</v>
       </c>
       <c r="C75" t="s">
-        <v>529</v>
+        <v>634</v>
       </c>
       <c r="D75" s="23">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>485</v>
@@ -9358,34 +9352,34 @@
         <v>486</v>
       </c>
       <c r="G75" s="16">
-        <v>1.048</v>
+        <v>1</v>
       </c>
       <c r="H75" s="17">
-        <v>1.0649999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="I75" s="1">
-        <v>1.012</v>
+        <v>1</v>
       </c>
       <c r="J75" s="1">
-        <v>1.016</v>
+        <v>1.2</v>
       </c>
       <c r="K75" s="18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L75" s="19">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M75" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N75" s="3">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="O75" s="24">
-        <v>4.8000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="P75" s="25">
-        <v>6.5000000000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="Q75" s="3">
         <v>0</v>
@@ -9394,66 +9388,63 @@
         <v>0</v>
       </c>
       <c r="S75" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="T75" t="s">
-        <v>837</v>
-      </c>
-      <c r="U75" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="V75" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B76" t="s">
         <v>956</v>
       </c>
       <c r="C76" t="s">
-        <v>668</v>
+        <v>529</v>
       </c>
       <c r="D76" s="23">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G76" s="16">
-        <v>1.046</v>
+        <v>1.048</v>
       </c>
       <c r="H76" s="17">
-        <v>1.056</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="I76" s="1">
-        <v>1.01</v>
+        <v>1.012</v>
       </c>
       <c r="J76" s="1">
-        <v>1.014</v>
+        <v>1.016</v>
       </c>
       <c r="K76" s="18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L76" s="19">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M76" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N76" s="3">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="O76" s="24">
-        <v>4.4999999999999998E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="P76" s="25">
-        <v>0.06</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
@@ -9462,66 +9453,66 @@
         <v>0</v>
       </c>
       <c r="S76" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="T76" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="U76" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="V76" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B77" t="s">
         <v>956</v>
       </c>
       <c r="C77" t="s">
-        <v>510</v>
+        <v>668</v>
       </c>
       <c r="D77" s="23">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>724</v>
+        <v>518</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G77" s="16">
-        <v>1.075</v>
+        <v>1.046</v>
       </c>
       <c r="H77" s="17">
-        <v>1.115</v>
+        <v>1.056</v>
       </c>
       <c r="I77" s="1">
-        <v>1.018</v>
+        <v>1.01</v>
       </c>
       <c r="J77" s="1">
-        <v>1.03</v>
+        <v>1.014</v>
       </c>
       <c r="K77" s="18">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L77" s="19">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="M77" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N77" s="3">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O77" s="24">
-        <v>0.08</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="P77" s="25">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="Q77" s="3">
         <v>0</v>
@@ -9530,66 +9521,66 @@
         <v>0</v>
       </c>
       <c r="S77" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="T77" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="U77" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="V77" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B78" t="s">
         <v>956</v>
       </c>
       <c r="C78" t="s">
-        <v>551</v>
+        <v>510</v>
       </c>
       <c r="D78" s="23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>492</v>
+        <v>724</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G78" s="16">
-        <v>1.048</v>
+        <v>1.075</v>
       </c>
       <c r="H78" s="17">
-        <v>1.0649999999999999</v>
+        <v>1.115</v>
       </c>
       <c r="I78" s="1">
-        <v>1.002</v>
+        <v>1.018</v>
       </c>
       <c r="J78" s="1">
-        <v>1.012</v>
+        <v>1.03</v>
       </c>
       <c r="K78" s="18">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L78" s="19">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="M78" s="3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N78" s="3">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="O78" s="24">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="P78" s="25">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="Q78" s="3">
         <v>0</v>
@@ -9598,30 +9589,30 @@
         <v>0</v>
       </c>
       <c r="S78" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="T78" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="U78" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="V78" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B79" t="s">
         <v>956</v>
       </c>
       <c r="C79" t="s">
-        <v>640</v>
+        <v>551</v>
       </c>
       <c r="D79" s="23">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>492</v>
@@ -9630,34 +9621,34 @@
         <v>486</v>
       </c>
       <c r="G79" s="16">
-        <v>1.046</v>
+        <v>1.048</v>
       </c>
       <c r="H79" s="17">
-        <v>1.052</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="I79" s="1">
-        <v>1.01</v>
+        <v>1.002</v>
       </c>
       <c r="J79" s="1">
-        <v>1.016</v>
+        <v>1.012</v>
       </c>
       <c r="K79" s="18">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L79" s="19">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M79" s="3">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N79" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O79" s="24">
-        <v>4.4000000000000004E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P79" s="25">
-        <v>5.4000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q79" s="3">
         <v>0</v>
@@ -9666,30 +9657,30 @@
         <v>0</v>
       </c>
       <c r="S79" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="T79" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="U79" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="V79" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B80" t="s">
         <v>956</v>
       </c>
       <c r="C80" t="s">
-        <v>743</v>
+        <v>640</v>
       </c>
       <c r="D80" s="23">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>492</v>
@@ -9698,10 +9689,10 @@
         <v>486</v>
       </c>
       <c r="G80" s="16">
-        <v>1.04</v>
+        <v>1.046</v>
       </c>
       <c r="H80" s="17">
-        <v>1.054</v>
+        <v>1.052</v>
       </c>
       <c r="I80" s="1">
         <v>1.01</v>
@@ -9710,22 +9701,22 @@
         <v>1.016</v>
       </c>
       <c r="K80" s="18">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L80" s="19">
+        <v>32</v>
+      </c>
+      <c r="M80" s="3">
+        <v>17</v>
+      </c>
+      <c r="N80" s="3">
         <v>30</v>
       </c>
-      <c r="M80" s="3">
-        <v>9</v>
-      </c>
-      <c r="N80" s="3">
-        <v>17</v>
-      </c>
       <c r="O80" s="24">
-        <v>3.9E-2</v>
+        <v>4.4000000000000004E-2</v>
       </c>
       <c r="P80" s="25">
-        <v>0.05</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="Q80" s="3">
         <v>0</v>
@@ -9734,21 +9725,21 @@
         <v>0</v>
       </c>
       <c r="S80" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="T80" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="U80" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="V80" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="B81" t="s">
         <v>956</v>
@@ -9760,28 +9751,28 @@
         <v>9</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G81" s="16">
-        <v>1.0349999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="H81" s="17">
-        <v>1.04</v>
+        <v>1.054</v>
       </c>
       <c r="I81" s="1">
         <v>1.01</v>
       </c>
       <c r="J81" s="1">
-        <v>1.0149999999999999</v>
+        <v>1.016</v>
       </c>
       <c r="K81" s="18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L81" s="19">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M81" s="3">
         <v>9</v>
@@ -9790,10 +9781,10 @@
         <v>17</v>
       </c>
       <c r="O81" s="24">
-        <v>3.2000000000000001E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="P81" s="25">
-        <v>3.9E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
@@ -9802,21 +9793,21 @@
         <v>0</v>
       </c>
       <c r="S81" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="T81" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="U81" t="s">
         <v>863</v>
       </c>
       <c r="V81" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B82" t="s">
         <v>956</v>
@@ -9828,28 +9819,28 @@
         <v>9</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G82" s="16">
-        <v>1.03</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="H82" s="17">
-        <v>1.0349999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="I82" s="1">
         <v>1.01</v>
       </c>
       <c r="J82" s="1">
-        <v>1.0129999999999999</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="K82" s="18">
         <v>10</v>
       </c>
       <c r="L82" s="19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M82" s="3">
         <v>9</v>
@@ -9858,10 +9849,10 @@
         <v>17</v>
       </c>
       <c r="O82" s="24">
-        <v>2.5000000000000001E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="P82" s="25">
-        <v>3.2000000000000001E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="Q82" s="3">
         <v>0</v>
@@ -9873,63 +9864,63 @@
         <v>866</v>
       </c>
       <c r="T82" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="U82" t="s">
         <v>863</v>
       </c>
       <c r="V82" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B83" t="s">
-        <v>586</v>
+        <v>956</v>
       </c>
       <c r="C83" t="s">
-        <v>657</v>
+        <v>743</v>
       </c>
       <c r="D83" s="23">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G83" s="16">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="H83" s="17">
-        <v>1.2</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="I83" s="1">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="J83" s="1">
-        <v>1.2</v>
+        <v>1.0129999999999999</v>
       </c>
       <c r="K83" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L83" s="19">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="O83" s="24">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="P83" s="25">
-        <v>1</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -9938,30 +9929,30 @@
         <v>0</v>
       </c>
       <c r="S83" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="T83" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="U83" t="s">
-        <v>660</v>
+        <v>863</v>
       </c>
       <c r="V83" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B84" t="s">
-        <v>956</v>
+        <v>586</v>
       </c>
       <c r="C84" t="s">
-        <v>768</v>
+        <v>657</v>
       </c>
       <c r="D84" s="23">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>485</v>
@@ -9970,34 +9961,34 @@
         <v>486</v>
       </c>
       <c r="G84" s="16">
-        <v>1.0329999999999999</v>
+        <v>1</v>
       </c>
       <c r="H84" s="17">
-        <v>1.042</v>
+        <v>1.2</v>
       </c>
       <c r="I84" s="1">
-        <v>1.0109999999999999</v>
+        <v>1</v>
       </c>
       <c r="J84" s="1">
-        <v>1.014</v>
+        <v>1.2</v>
       </c>
       <c r="K84" s="18">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L84" s="19">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M84" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N84" s="3">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="O84" s="24">
-        <v>2.7999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="P84" s="25">
-        <v>4.0999999999999995E-2</v>
+        <v>1</v>
       </c>
       <c r="Q84" s="3">
         <v>0</v>
@@ -10006,30 +9997,30 @@
         <v>0</v>
       </c>
       <c r="S84" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="T84" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="U84" t="s">
-        <v>879</v>
+        <v>660</v>
       </c>
       <c r="V84" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B85" t="s">
         <v>956</v>
       </c>
       <c r="C85" t="s">
-        <v>694</v>
+        <v>768</v>
       </c>
       <c r="D85" s="23">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>485</v>
@@ -10038,34 +10029,34 @@
         <v>486</v>
       </c>
       <c r="G85" s="16">
-        <v>1.04</v>
+        <v>1.0329999999999999</v>
       </c>
       <c r="H85" s="17">
-        <v>1.048</v>
+        <v>1.042</v>
       </c>
       <c r="I85" s="1">
-        <v>1.008</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="J85" s="1">
-        <v>1.012</v>
+        <v>1.014</v>
       </c>
       <c r="K85" s="18">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L85" s="19">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M85" s="3">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="N85" s="3">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="O85" s="24">
-        <v>3.7999999999999999E-2</v>
+        <v>2.7999999999999997E-2</v>
       </c>
       <c r="P85" s="25">
-        <v>4.5999999999999999E-2</v>
+        <v>4.0999999999999995E-2</v>
       </c>
       <c r="Q85" s="3">
         <v>0</v>
@@ -10074,63 +10065,66 @@
         <v>0</v>
       </c>
       <c r="S85" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="T85" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="U85" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="V85" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B86" t="s">
         <v>956</v>
       </c>
       <c r="C86" t="s">
-        <v>886</v>
+        <v>694</v>
       </c>
       <c r="D86" s="23">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>485</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G86" s="16">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="H86" s="17">
-        <v>1.2</v>
+        <v>1.048</v>
       </c>
       <c r="I86" s="1">
-        <v>1</v>
+        <v>1.008</v>
       </c>
       <c r="J86" s="1">
-        <v>1.2</v>
+        <v>1.012</v>
       </c>
       <c r="K86" s="18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L86" s="19">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="M86" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N86" s="3">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="O86" s="24">
-        <v>0</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="P86" s="25">
-        <v>1</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="Q86" s="3">
         <v>0</v>
@@ -10139,30 +10133,30 @@
         <v>0</v>
       </c>
       <c r="S86" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="T86" t="s">
-        <v>888</v>
+        <v>883</v>
+      </c>
+      <c r="U86" t="s">
+        <v>884</v>
       </c>
       <c r="V86" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B87" t="s">
         <v>956</v>
       </c>
       <c r="C87" t="s">
-        <v>604</v>
+        <v>886</v>
       </c>
       <c r="D87" s="23">
-        <v>21</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>505</v>
+        <v>23</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>486</v>
@@ -10204,63 +10198,63 @@
         <v>0</v>
       </c>
       <c r="S87" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="T87" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="V87" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B88" t="s">
         <v>956</v>
       </c>
       <c r="C88" t="s">
-        <v>651</v>
+        <v>604</v>
       </c>
       <c r="D88" s="23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G88" s="16">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="H88" s="17">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="I88" s="1">
-        <v>1.004</v>
+        <v>1</v>
       </c>
       <c r="J88" s="1">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="K88" s="18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L88" s="19">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="M88" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N88" s="3">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="O88" s="24">
-        <v>4.2000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="P88" s="25">
-        <v>5.2999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="Q88" s="3">
         <v>0</v>
@@ -10269,66 +10263,63 @@
         <v>0</v>
       </c>
       <c r="S88" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="T88" t="s">
-        <v>896</v>
-      </c>
-      <c r="U88" t="s">
-        <v>755</v>
+        <v>892</v>
       </c>
       <c r="V88" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B89" t="s">
         <v>956</v>
       </c>
       <c r="C89" t="s">
-        <v>694</v>
+        <v>651</v>
       </c>
       <c r="D89" s="23">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G89" s="16">
-        <v>1.032</v>
+        <v>1.04</v>
       </c>
       <c r="H89" s="17">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I89" s="1">
-        <v>1.0069999999999999</v>
+        <v>1.004</v>
       </c>
       <c r="J89" s="1">
-        <v>1.0109999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="K89" s="18">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L89" s="19">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M89" s="3">
+        <v>2</v>
+      </c>
+      <c r="N89" s="3">
         <v>4</v>
       </c>
-      <c r="N89" s="3">
-        <v>14</v>
-      </c>
       <c r="O89" s="24">
-        <v>3.2000000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="P89" s="25">
-        <v>3.7999999999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -10337,66 +10328,66 @@
         <v>0</v>
       </c>
       <c r="S89" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="T89" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="U89" t="s">
-        <v>884</v>
+        <v>755</v>
       </c>
       <c r="V89" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B90" t="s">
         <v>956</v>
       </c>
       <c r="C90" t="s">
-        <v>565</v>
+        <v>694</v>
       </c>
       <c r="D90" s="23">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G90" s="16">
+        <v>1.032</v>
+      </c>
+      <c r="H90" s="17">
         <v>1.04</v>
       </c>
-      <c r="H90" s="17">
-        <v>1.054</v>
-      </c>
       <c r="I90" s="1">
-        <v>1.0009999999999999</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="J90" s="1">
-        <v>1.01</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="K90" s="18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L90" s="19">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M90" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N90" s="3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O90" s="24">
-        <v>0.05</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="P90" s="25">
-        <v>6.5000000000000002E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="Q90" s="3">
         <v>0</v>
@@ -10405,67 +10396,67 @@
         <v>0</v>
       </c>
       <c r="S90" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="T90" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="U90" t="s">
-        <v>736</v>
+        <v>884</v>
       </c>
       <c r="V90" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B91" t="s">
         <v>956</v>
       </c>
       <c r="C91" t="s">
-        <v>743</v>
+        <v>565</v>
       </c>
       <c r="D91" s="23">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G91" s="16">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="H91" s="17">
-        <v>1.1299999999999999</v>
+        <v>1.054</v>
       </c>
       <c r="I91" s="1">
-        <v>1.018</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="J91" s="1">
-        <v>1.056</v>
+        <v>1.01</v>
       </c>
       <c r="K91" s="18">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L91" s="19">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N91" s="3">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="O91" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="P91" s="25">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="P91" s="25">
-        <v>0.1</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -10473,66 +10464,66 @@
         <v>0</v>
       </c>
       <c r="S91" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="T91" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="U91" t="s">
-        <v>909</v>
+        <v>736</v>
       </c>
       <c r="V91" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="B92" t="s">
-        <v>586</v>
+        <v>956</v>
       </c>
       <c r="C92" t="s">
-        <v>657</v>
+        <v>743</v>
       </c>
       <c r="D92" s="23">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G92" s="16">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="H92" s="17">
-        <v>1.2</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I92" s="1">
-        <v>1</v>
+        <v>1.018</v>
       </c>
       <c r="J92" s="1">
-        <v>1.2</v>
+        <v>1.056</v>
       </c>
       <c r="K92" s="18">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L92" s="19">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="M92" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N92" s="3">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="O92" s="24">
-        <v>0</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="P92" s="25">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Q92" s="3">
         <v>0</v>
@@ -10541,66 +10532,66 @@
         <v>0</v>
       </c>
       <c r="S92" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="T92" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="U92" t="s">
-        <v>660</v>
+        <v>909</v>
       </c>
       <c r="V92" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>32</v>
+        <v>911</v>
       </c>
       <c r="B93" t="s">
-        <v>956</v>
+        <v>586</v>
       </c>
       <c r="C93" t="s">
-        <v>510</v>
+        <v>657</v>
       </c>
       <c r="D93" s="23">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G93" s="16">
-        <v>1.044</v>
+        <v>1</v>
       </c>
       <c r="H93" s="17">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="I93" s="1">
-        <v>1.012</v>
+        <v>1</v>
       </c>
       <c r="J93" s="1">
-        <v>1.024</v>
+        <v>1.2</v>
       </c>
       <c r="K93" s="18">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L93" s="19">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M93" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N93" s="3">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="O93" s="24">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="P93" s="25">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="Q93" s="3">
         <v>0</v>
@@ -10609,30 +10600,30 @@
         <v>0</v>
       </c>
       <c r="S93" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="T93" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="U93" t="s">
-        <v>917</v>
+        <v>660</v>
       </c>
       <c r="V93" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>919</v>
+        <v>32</v>
       </c>
       <c r="B94" t="s">
         <v>956</v>
       </c>
       <c r="C94" t="s">
-        <v>645</v>
+        <v>510</v>
       </c>
       <c r="D94" s="23">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>485</v>
@@ -10641,34 +10632,34 @@
         <v>486</v>
       </c>
       <c r="G94" s="16">
-        <v>1.0640000000000001</v>
+        <v>1.044</v>
       </c>
       <c r="H94" s="17">
-        <v>1.0720000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="I94" s="1">
-        <v>1.0129999999999999</v>
+        <v>1.012</v>
       </c>
       <c r="J94" s="1">
-        <v>1.0189999999999999</v>
+        <v>1.024</v>
       </c>
       <c r="K94" s="18">
         <v>20</v>
       </c>
       <c r="L94" s="19">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="M94" s="3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N94" s="3">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="O94" s="24">
-        <v>6.3E-2</v>
+        <v>0.04</v>
       </c>
       <c r="P94" s="25">
-        <v>7.2000000000000008E-2</v>
+        <v>0.06</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -10677,66 +10668,66 @@
         <v>0</v>
       </c>
       <c r="S94" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="T94" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="U94" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="V94" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="B95" t="s">
-        <v>524</v>
+        <v>956</v>
       </c>
       <c r="C95" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="D95" s="23">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G95" s="16">
-        <v>1.05</v>
+        <v>1.0640000000000001</v>
       </c>
       <c r="H95" s="17">
-        <v>1.07</v>
+        <v>1.0720000000000001</v>
       </c>
       <c r="I95" s="1">
-        <v>1</v>
+        <v>1.0129999999999999</v>
       </c>
       <c r="J95" s="1">
-        <v>1.02</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="K95" s="18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L95" s="19">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M95" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N95" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O95" s="24">
-        <v>0.05</v>
+        <v>6.3E-2</v>
       </c>
       <c r="P95" s="25">
-        <v>0.09</v>
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="Q95" s="3">
         <v>0</v>
@@ -10745,63 +10736,66 @@
         <v>0</v>
       </c>
       <c r="S95" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="T95" t="s">
-        <v>926</v>
+        <v>921</v>
+      </c>
+      <c r="U95" t="s">
+        <v>922</v>
       </c>
       <c r="V95" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>33</v>
+        <v>924</v>
       </c>
       <c r="B96" t="s">
-        <v>956</v>
+        <v>524</v>
       </c>
       <c r="C96" t="s">
-        <v>800</v>
+        <v>621</v>
       </c>
       <c r="D96" s="23">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G96" s="16">
-        <v>1.046</v>
+        <v>1.05</v>
       </c>
       <c r="H96" s="17">
-        <v>1.052</v>
+        <v>1.07</v>
       </c>
       <c r="I96" s="1">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="J96" s="1">
-        <v>1.014</v>
+        <v>1.02</v>
       </c>
       <c r="K96" s="18">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L96" s="19">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O96" s="24">
-        <v>4.4999999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P96" s="25">
-        <v>5.5E-2</v>
+        <v>0.09</v>
       </c>
       <c r="Q96" s="3">
         <v>0</v>
@@ -10810,30 +10804,27 @@
         <v>0</v>
       </c>
       <c r="S96" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="T96" t="s">
-        <v>929</v>
-      </c>
-      <c r="U96" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="V96" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>932</v>
+        <v>33</v>
       </c>
       <c r="B97" t="s">
         <v>956</v>
       </c>
       <c r="C97" t="s">
-        <v>668</v>
+        <v>800</v>
       </c>
       <c r="D97" s="23">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>505</v>
@@ -10842,7 +10833,7 @@
         <v>486</v>
       </c>
       <c r="G97" s="16">
-        <v>1.044</v>
+        <v>1.046</v>
       </c>
       <c r="H97" s="17">
         <v>1.052</v>
@@ -10854,22 +10845,22 @@
         <v>1.014</v>
       </c>
       <c r="K97" s="18">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L97" s="19">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M97" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N97" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="O97" s="24">
-        <v>4.2999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="P97" s="25">
-        <v>5.5999999999999994E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Q97" s="3">
         <v>0</v>
@@ -10878,21 +10869,21 @@
         <v>0</v>
       </c>
       <c r="S97" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="T97" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="U97" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="V97" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>932</v>
       </c>
       <c r="B98" t="s">
         <v>956</v>
@@ -10904,40 +10895,40 @@
         <v>15</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G98" s="16">
-        <v>1.0640000000000001</v>
+        <v>1.044</v>
       </c>
       <c r="H98" s="17">
-        <v>1.0900000000000001</v>
+        <v>1.052</v>
       </c>
       <c r="I98" s="1">
-        <v>1.0149999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="J98" s="1">
-        <v>1.022</v>
+        <v>1.014</v>
       </c>
       <c r="K98" s="18">
+        <v>8</v>
+      </c>
+      <c r="L98" s="19">
         <v>15</v>
       </c>
-      <c r="L98" s="19">
-        <v>30</v>
-      </c>
       <c r="M98" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N98" s="3">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="O98" s="24">
-        <v>6.5000000000000002E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="P98" s="25">
-        <v>0.08</v>
+        <v>5.5999999999999994E-2</v>
       </c>
       <c r="Q98" s="3">
         <v>0</v>
@@ -10946,66 +10937,66 @@
         <v>0</v>
       </c>
       <c r="S98" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="T98" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="U98" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="V98" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B99" t="s">
         <v>956</v>
       </c>
       <c r="C99" t="s">
-        <v>551</v>
+        <v>668</v>
       </c>
       <c r="D99" s="23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G99" s="16">
-        <v>1.044</v>
+        <v>1.0640000000000001</v>
       </c>
       <c r="H99" s="17">
-        <v>1.052</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I99" s="1">
-        <v>1.008</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="J99" s="1">
-        <v>1.012</v>
+        <v>1.022</v>
       </c>
       <c r="K99" s="18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L99" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M99" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N99" s="3">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="O99" s="24">
-        <v>4.4999999999999998E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="P99" s="25">
-        <v>5.5E-2</v>
+        <v>0.08</v>
       </c>
       <c r="Q99" s="3">
         <v>0</v>
@@ -11014,93 +11005,167 @@
         <v>0</v>
       </c>
       <c r="S99" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="T99" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="U99" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="V99" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>945</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
         <v>956</v>
       </c>
       <c r="C100" t="s">
-        <v>615</v>
+        <v>551</v>
       </c>
       <c r="D100" s="23">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G100" s="16">
+        <v>1.044</v>
+      </c>
+      <c r="H100" s="17">
+        <v>1.052</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1.008</v>
+      </c>
+      <c r="J100" s="1">
+        <v>1.012</v>
+      </c>
+      <c r="K100" s="18">
+        <v>10</v>
+      </c>
+      <c r="L100" s="19">
+        <v>20</v>
+      </c>
+      <c r="M100" s="3">
+        <v>2</v>
+      </c>
+      <c r="N100" s="3">
+        <v>4</v>
+      </c>
+      <c r="O100" s="24">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="P100" s="25">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="21">
+        <v>0</v>
+      </c>
+      <c r="S100" t="s">
+        <v>941</v>
+      </c>
+      <c r="T100" t="s">
+        <v>942</v>
+      </c>
+      <c r="U100" t="s">
+        <v>943</v>
+      </c>
+      <c r="V100" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>945</v>
+      </c>
+      <c r="B101" t="s">
+        <v>956</v>
+      </c>
+      <c r="C101" t="s">
+        <v>615</v>
+      </c>
+      <c r="D101" s="23">
+        <v>22</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="G101" s="16">
         <v>1</v>
       </c>
-      <c r="H100" s="17">
+      <c r="H101" s="17">
         <v>1.2</v>
       </c>
-      <c r="I100" s="1">
+      <c r="I101" s="1">
         <v>1</v>
       </c>
-      <c r="J100" s="1">
+      <c r="J101" s="1">
         <v>1.2</v>
       </c>
-      <c r="K100" s="18">
-        <v>0</v>
-      </c>
-      <c r="L100" s="19">
+      <c r="K101" s="18">
+        <v>0</v>
+      </c>
+      <c r="L101" s="19">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="24">
-        <v>0</v>
-      </c>
-      <c r="P100" s="25">
+      <c r="O101" s="24">
+        <v>0</v>
+      </c>
+      <c r="P101" s="25">
         <v>1</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="21">
-        <v>0</v>
-      </c>
-      <c r="S100" t="s">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="21">
+        <v>0</v>
+      </c>
+      <c r="S101" t="s">
         <v>946</v>
       </c>
-      <c r="T100" t="s">
+      <c r="T101" t="s">
         <v>947</v>
       </c>
-      <c r="U100" t="s">
+      <c r="U101" t="s">
         <v>948</v>
       </c>
-      <c r="V100" t="s">
+      <c r="V101" t="s">
         <v>949</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:V100" xr:uid="{3E1B9CC5-C8E7-4F24-99DB-9570B5A114C9}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:V100">
-      <sortCondition ref="A2:A100"/>
+  <autoFilter ref="A2:V101" xr:uid="{3E1B9CC5-C8E7-4F24-99DB-9570B5A114C9}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:V101">
+      <sortCondition ref="A2:A101"/>
     </sortState>
   </autoFilter>
   <mergeCells count="14">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="K1:L1"/>
@@ -11109,12 +11174,6 @@
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{A6DCB9C4-B06B-4870-87D5-BA96103BC11D}">
@@ -11131,7 +11190,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N208"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B153" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Brewing\Software\AlphaBrew\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Projects\Brewing\Software\AlphaBrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA14D8EF-2B07-42DB-BA35-B27F3AC6BA8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7620A010-867C-48A4-8FBD-CD18788B8758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CDF466C7-5B50-42D7-8D0F-5D6B49FA8285}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{CDF466C7-5B50-42D7-8D0F-5D6B49FA8285}"/>
   </bookViews>
   <sheets>
     <sheet name="Styles" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="1261">
   <si>
     <t>Style</t>
   </si>
@@ -3818,6 +3818,15 @@
   </si>
   <si>
     <t>Black IPA</t>
+  </si>
+  <si>
+    <t>Cara 8 Malt</t>
+  </si>
+  <si>
+    <t>Dingemans</t>
+  </si>
+  <si>
+    <t>Adding this type of malt increases the foam stability of your beers. Trough it’s light colour it can even be added in low percentages in your Pilsen beer to improve the foam stability.</t>
   </si>
 </sst>
 </file>
@@ -3999,7 +4008,28 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4018,27 +4048,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4359,7 +4368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD9F28D-7B72-455D-AE84-5081F2A35C92}">
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
@@ -4385,61 +4394,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="34" t="s">
         <v>957</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45" t="s">
+      <c r="D1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39" t="s">
         <v>958</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="40" t="s">
+      <c r="H1" s="40"/>
+      <c r="I1" s="33" t="s">
         <v>959</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="35" t="s">
+      <c r="J1" s="33"/>
+      <c r="K1" s="42" t="s">
         <v>960</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="44" t="s">
         <v>961</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="45" t="s">
         <v>962</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="38" t="s">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="45" t="s">
         <v>963</v>
       </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="33" t="s">
+      <c r="R1" s="46"/>
+      <c r="S1" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="37" t="s">
         <v>952</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="37" t="s">
         <v>951</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="37" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="22" t="s">
         <v>953</v>
       </c>
@@ -4485,10 +4494,10 @@
       <c r="R2" s="15" t="s">
         <v>965</v>
       </c>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -11160,12 +11169,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:H1"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="K1:L1"/>
@@ -11174,6 +11177,12 @@
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{A6DCB9C4-B06B-4870-87D5-BA96103BC11D}">
@@ -11188,13 +11197,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376299B9-AA91-42AA-B33D-63AEAA70426D}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N208"/>
+  <dimension ref="A1:N209"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B153" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A144" sqref="A144"/>
+      <selection pane="bottomRight" activeCell="N206" sqref="N206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19063,6 +19072,44 @@
       </c>
       <c r="K208" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B209" t="s">
+        <v>36</v>
+      </c>
+      <c r="C209" t="s">
+        <v>189</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E209" t="s">
+        <v>57</v>
+      </c>
+      <c r="F209" s="3">
+        <v>75</v>
+      </c>
+      <c r="G209" s="32">
+        <v>8</v>
+      </c>
+      <c r="H209" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I209" s="2">
+        <v>0</v>
+      </c>
+      <c r="J209" t="b">
+        <v>0</v>
+      </c>
+      <c r="K209" t="b">
+        <v>1</v>
+      </c>
+      <c r="N209" t="s">
+        <v>1260</v>
       </c>
     </row>
   </sheetData>
